--- a/0-data/0-raw/tree2l2.xlsx
+++ b/0-data/0-raw/tree2l2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Desktop\terrain_mesures_millan2020\arbres_mtg\arbre2\A2B2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cirad.fr\AMAP - FSPM - Analyses\Allometries\0-data\0-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="A2B2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
       <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K41">
@@ -985,12 +985,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
         <v>69</v>
@@ -1038,7 +1036,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K43">
@@ -1047,7 +1045,7 @@
       <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E44" t="s">
+      <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="G44">
@@ -1092,7 +1090,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
       <c r="G45">
@@ -1110,7 +1108,7 @@
       <c r="U45" s="6"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K46">
@@ -1119,7 +1117,7 @@
       <c r="U46" s="6"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E47" t="s">
+      <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="G47">
@@ -1165,9 +1163,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="G48">
@@ -1216,9 +1212,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="E49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K49">
@@ -1228,9 +1222,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="E50" t="s">
+      <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="G50">
@@ -1276,9 +1268,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" t="s">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="G51">
@@ -1463,6 +1453,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1471,20 +1467,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBBB5AAE-3F4B-42F9-B64D-668BA26BD1B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBBB5AAE-3F4B-42F9-B64D-668BA26BD1B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A098CE-02DB-47A6-A39E-2D2938049922}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA0E19ED-84F1-4B1D-B2D0-E8490ED16B21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA0E19ED-84F1-4B1D-B2D0-E8490ED16B21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A098CE-02DB-47A6-A39E-2D2938049922}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>